--- a/data/word_list_3.xlsx
+++ b/data/word_list_3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -423,10 +403,7 @@
       <c r="C2">
         <v>5.24</v>
       </c>
-      <c r="F2">
-        <v>5.24</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>speak to</t>
         </is>
@@ -438,19 +415,13 @@
           <t>couch</t>
         </is>
       </c>
-      <c r="B3">
-        <v>2.62</v>
-      </c>
       <c r="C3">
         <v>5.24</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>5.24</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>2.62</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>couch</t>
         </is>
@@ -465,10 +436,7 @@
       <c r="C4">
         <v>5.24</v>
       </c>
-      <c r="F4">
-        <v>5.24</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>june</t>
         </is>
@@ -483,10 +451,7 @@
       <c r="C5">
         <v>5.24</v>
       </c>
-      <c r="F5">
-        <v>5.24</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
@@ -501,10 +466,7 @@
       <c r="C6">
         <v>5.24</v>
       </c>
-      <c r="F6">
-        <v>5.24</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>injury</t>
         </is>
@@ -519,10 +481,7 @@
       <c r="C7">
         <v>5.24</v>
       </c>
-      <c r="F7">
-        <v>5.24</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>related</t>
         </is>
@@ -537,10 +496,7 @@
       <c r="C8">
         <v>5.25</v>
       </c>
-      <c r="F8">
-        <v>5.25</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>icy</t>
         </is>
@@ -555,10 +511,7 @@
       <c r="C9">
         <v>5.25</v>
       </c>
-      <c r="F9">
-        <v>5.25</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>guest</t>
         </is>
@@ -573,10 +526,7 @@
       <c r="C10">
         <v>5.25</v>
       </c>
-      <c r="F10">
-        <v>5.25</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>butcher</t>
         </is>
@@ -588,13 +538,10 @@
           <t>kettensäge</t>
         </is>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>5.25</v>
       </c>
-      <c r="F11">
-        <v>5.25</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>chainsaw</t>
         </is>
@@ -606,16 +553,13 @@
           <t>flugzeugbauer</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>5.25</v>
+      </c>
+      <c r="D12">
         <v>0.05</v>
       </c>
-      <c r="D12">
-        <v>5.25</v>
-      </c>
-      <c r="F12">
-        <v>5.25</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>aircraft manufacturer</t>
         </is>
@@ -627,16 +571,13 @@
           <t>goldschmied</t>
         </is>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>5.25</v>
+      </c>
+      <c r="D13">
         <v>1.31</v>
       </c>
-      <c r="D13">
-        <v>5.25</v>
-      </c>
-      <c r="F13">
-        <v>5.25</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>goldsmith</t>
         </is>
@@ -651,10 +592,7 @@
       <c r="C14">
         <v>5.26</v>
       </c>
-      <c r="F14">
-        <v>5.26</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>sports</t>
         </is>
@@ -669,10 +607,7 @@
       <c r="C15">
         <v>5.26</v>
       </c>
-      <c r="F15">
-        <v>5.26</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>vanilla</t>
         </is>
@@ -684,16 +619,13 @@
           <t>miesmuschel</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>5.26</v>
+      </c>
+      <c r="D16">
         <v>0.31</v>
       </c>
-      <c r="D16">
-        <v>5.26</v>
-      </c>
-      <c r="F16">
-        <v>5.26</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>mussel</t>
         </is>
@@ -705,16 +637,13 @@
           <t>goldkehlchen</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>5.26</v>
+      </c>
+      <c r="D17">
         <v>0.01</v>
       </c>
-      <c r="D17">
-        <v>5.26</v>
-      </c>
-      <c r="F17">
-        <v>5.26</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>goldenthroat</t>
         </is>
@@ -729,10 +658,7 @@
       <c r="C18">
         <v>5.27</v>
       </c>
-      <c r="F18">
-        <v>5.27</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>spring</t>
         </is>
@@ -744,16 +670,13 @@
           <t>leier</t>
         </is>
       </c>
-      <c r="B19">
+      <c r="C19">
+        <v>5.28</v>
+      </c>
+      <c r="D19">
         <v>1.1</v>
       </c>
-      <c r="D19">
-        <v>5.28</v>
-      </c>
-      <c r="F19">
-        <v>5.28</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>lyre</t>
         </is>
@@ -765,16 +688,13 @@
           <t>tamburin</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="C20">
+        <v>5.28</v>
+      </c>
+      <c r="D20">
         <v>0.33</v>
       </c>
-      <c r="D20">
-        <v>5.28</v>
-      </c>
-      <c r="F20">
-        <v>5.28</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>tambourine</t>
         </is>
@@ -789,10 +709,7 @@
       <c r="C21">
         <v>5.28</v>
       </c>
-      <c r="F21">
-        <v>5.28</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>run away</t>
         </is>
@@ -807,10 +724,7 @@
       <c r="C22">
         <v>5.28</v>
       </c>
-      <c r="F22">
-        <v>5.28</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>mill</t>
         </is>
@@ -825,10 +739,7 @@
       <c r="C23">
         <v>5.28</v>
       </c>
-      <c r="F23">
-        <v>5.28</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>mute</t>
         </is>
@@ -843,10 +754,7 @@
       <c r="C24">
         <v>5.28</v>
       </c>
-      <c r="F24">
-        <v>5.28</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>deaf</t>
         </is>
@@ -858,25 +766,22 @@
           <t>tippen</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C25">
         <v>5.29</v>
       </c>
-      <c r="F25">
-        <v>5.29</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -889,10 +794,7 @@
       <c r="C26">
         <v>5.29</v>
       </c>
-      <c r="F26">
-        <v>5.29</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>bad luck</t>
         </is>
@@ -907,10 +809,7 @@
       <c r="C27">
         <v>5.29</v>
       </c>
-      <c r="F27">
-        <v>5.29</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>pearl</t>
         </is>
@@ -925,10 +824,7 @@
       <c r="C28">
         <v>5.29</v>
       </c>
-      <c r="F28">
-        <v>5.29</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>protect</t>
         </is>
@@ -943,10 +839,7 @@
       <c r="C29">
         <v>5.29</v>
       </c>
-      <c r="F29">
-        <v>5.29</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>seat</t>
         </is>
@@ -961,10 +854,7 @@
       <c r="C30">
         <v>5.29</v>
       </c>
-      <c r="F30">
-        <v>5.29</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>stem</t>
         </is>
@@ -979,10 +869,7 @@
       <c r="C31">
         <v>5.3</v>
       </c>
-      <c r="F31">
-        <v>5.3</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>shark</t>
         </is>
@@ -997,10 +884,7 @@
       <c r="C32">
         <v>5.3</v>
       </c>
-      <c r="F32">
-        <v>5.3</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>lament</t>
         </is>
@@ -1015,10 +899,7 @@
       <c r="C33">
         <v>5.3</v>
       </c>
-      <c r="F33">
-        <v>5.3</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>grape</t>
         </is>
@@ -1033,10 +914,7 @@
       <c r="C34">
         <v>5.3</v>
       </c>
-      <c r="F34">
-        <v>5.3</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>weeds</t>
         </is>
@@ -1048,16 +926,13 @@
           <t>turmfalke</t>
         </is>
       </c>
-      <c r="B35">
+      <c r="C35">
+        <v>5.3</v>
+      </c>
+      <c r="D35">
         <v>0.09</v>
       </c>
-      <c r="D35">
-        <v>5.3</v>
-      </c>
-      <c r="F35">
-        <v>5.3</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>kestrel</t>
         </is>
@@ -1069,16 +944,13 @@
           <t>feige</t>
         </is>
       </c>
-      <c r="B36">
+      <c r="C36">
+        <v>5.3</v>
+      </c>
+      <c r="D36">
         <v>1.62</v>
       </c>
-      <c r="D36">
-        <v>5.3</v>
-      </c>
-      <c r="F36">
-        <v>5.3</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>fig</t>
         </is>
@@ -1090,16 +962,13 @@
           <t>stulpen</t>
         </is>
       </c>
-      <c r="B37">
+      <c r="C37">
+        <v>5.3</v>
+      </c>
+      <c r="D37">
         <v>0.16</v>
       </c>
-      <c r="D37">
-        <v>5.3</v>
-      </c>
-      <c r="F37">
-        <v>5.3</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>cuffs</t>
         </is>
@@ -1111,16 +980,13 @@
           <t>parka</t>
         </is>
       </c>
-      <c r="B38">
+      <c r="C38">
+        <v>5.3</v>
+      </c>
+      <c r="D38">
         <v>0.28</v>
       </c>
-      <c r="D38">
-        <v>5.3</v>
-      </c>
-      <c r="F38">
-        <v>5.3</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>parka</t>
         </is>
@@ -1132,16 +998,13 @@
           <t>e-gitarre</t>
         </is>
       </c>
-      <c r="B39">
+      <c r="C39">
+        <v>5.3</v>
+      </c>
+      <c r="D39">
         <v>0.02</v>
       </c>
-      <c r="D39">
-        <v>5.3</v>
-      </c>
-      <c r="F39">
-        <v>5.3</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>electric guitar</t>
         </is>
@@ -1153,16 +1016,13 @@
           <t>joggen</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="C40">
+        <v>5.3</v>
+      </c>
+      <c r="D40">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D40">
-        <v>5.3</v>
-      </c>
-      <c r="F40">
-        <v>5.3</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
@@ -1174,16 +1034,13 @@
           <t>physiker</t>
         </is>
       </c>
-      <c r="B41">
+      <c r="C41">
+        <v>5.3</v>
+      </c>
+      <c r="D41">
         <v>8.31</v>
       </c>
-      <c r="D41">
-        <v>5.3</v>
-      </c>
-      <c r="F41">
-        <v>5.3</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>physicist</t>
         </is>
@@ -1195,16 +1052,13 @@
           <t>bestatter</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="C42">
+        <v>5.3</v>
+      </c>
+      <c r="D42">
         <v>0.13</v>
       </c>
-      <c r="D42">
-        <v>5.3</v>
-      </c>
-      <c r="F42">
-        <v>5.3</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>undertaker</t>
         </is>
@@ -1219,10 +1073,7 @@
       <c r="C43">
         <v>5.31</v>
       </c>
-      <c r="F43">
-        <v>5.31</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>beech</t>
         </is>
@@ -1237,10 +1088,7 @@
       <c r="C44">
         <v>5.31</v>
       </c>
-      <c r="F44">
-        <v>5.31</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>antlers</t>
         </is>
@@ -1252,16 +1100,13 @@
           <t>stangensellerie</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="C45">
+        <v>5.32</v>
+      </c>
+      <c r="D45">
         <v>0.03</v>
       </c>
-      <c r="D45">
-        <v>5.32</v>
-      </c>
-      <c r="F45">
-        <v>5.32</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>stalk celery</t>
         </is>
@@ -1273,13 +1118,10 @@
           <t>esskastanie</t>
         </is>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>5.32</v>
       </c>
-      <c r="F46">
-        <v>5.32</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>sweet chestnut</t>
         </is>
@@ -1291,16 +1133,13 @@
           <t>mandoline</t>
         </is>
       </c>
-      <c r="B47">
+      <c r="C47">
+        <v>5.32</v>
+      </c>
+      <c r="D47">
         <v>0.75</v>
       </c>
-      <c r="D47">
-        <v>5.32</v>
-      </c>
-      <c r="F47">
-        <v>5.32</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>mandolin</t>
         </is>
@@ -1315,10 +1154,7 @@
       <c r="C48">
         <v>5.32</v>
       </c>
-      <c r="F48">
-        <v>5.32</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>annoy</t>
         </is>
@@ -1333,10 +1169,7 @@
       <c r="C49">
         <v>5.32</v>
       </c>
-      <c r="F49">
-        <v>5.32</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>discover</t>
         </is>
@@ -1351,10 +1184,7 @@
       <c r="C50">
         <v>5.32</v>
       </c>
-      <c r="F50">
-        <v>5.32</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>realise</t>
         </is>
@@ -1369,10 +1199,7 @@
       <c r="C51">
         <v>5.32</v>
       </c>
-      <c r="F51">
-        <v>5.32</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>hairstyle</t>
         </is>
@@ -1387,10 +1214,7 @@
       <c r="C52">
         <v>5.32</v>
       </c>
-      <c r="F52">
-        <v>5.32</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>louse</t>
         </is>
@@ -1405,10 +1229,7 @@
       <c r="C53">
         <v>5.32</v>
       </c>
-      <c r="F53">
-        <v>5.32</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>moment</t>
         </is>
@@ -1423,10 +1244,7 @@
       <c r="C54">
         <v>5.32</v>
       </c>
-      <c r="F54">
-        <v>5.32</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>tray</t>
         </is>
@@ -1441,10 +1259,7 @@
       <c r="C55">
         <v>5.33</v>
       </c>
-      <c r="F55">
-        <v>5.33</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>hail</t>
         </is>
@@ -1459,10 +1274,7 @@
       <c r="C56">
         <v>5.33</v>
       </c>
-      <c r="F56">
-        <v>5.33</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>mostly</t>
         </is>
@@ -1477,10 +1289,7 @@
       <c r="C57">
         <v>5.33</v>
       </c>
-      <c r="F57">
-        <v>5.33</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>sixty</t>
         </is>
@@ -1495,10 +1304,7 @@
       <c r="C58">
         <v>5.33</v>
       </c>
-      <c r="F58">
-        <v>5.33</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sail</t>
         </is>
@@ -1513,10 +1319,7 @@
       <c r="C59">
         <v>5.33</v>
       </c>
-      <c r="F59">
-        <v>5.33</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>free</t>
         </is>
@@ -1531,10 +1334,7 @@
       <c r="C60">
         <v>5.35</v>
       </c>
-      <c r="F60">
-        <v>5.35</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>concrete</t>
         </is>
@@ -1549,10 +1349,7 @@
       <c r="C61">
         <v>5.35</v>
       </c>
-      <c r="F61">
-        <v>5.35</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>coward</t>
         </is>
@@ -1567,10 +1364,7 @@
       <c r="C62">
         <v>5.35</v>
       </c>
-      <c r="F62">
-        <v>5.35</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>glass door</t>
         </is>
@@ -1582,16 +1376,13 @@
           <t>albatros</t>
         </is>
       </c>
-      <c r="B63">
+      <c r="C63">
+        <v>5.35</v>
+      </c>
+      <c r="D63">
         <v>0.37</v>
       </c>
-      <c r="D63">
-        <v>5.35</v>
-      </c>
-      <c r="F63">
-        <v>5.35</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>albatross</t>
         </is>
@@ -1603,16 +1394,13 @@
           <t>peperoni</t>
         </is>
       </c>
-      <c r="B64">
+      <c r="C64">
+        <v>5.35</v>
+      </c>
+      <c r="D64">
         <v>0.04</v>
       </c>
-      <c r="D64">
-        <v>5.35</v>
-      </c>
-      <c r="F64">
-        <v>5.35</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>chilli</t>
         </is>
@@ -1624,16 +1412,13 @@
           <t>sprosse</t>
         </is>
       </c>
-      <c r="B65">
+      <c r="C65">
+        <v>5.35</v>
+      </c>
+      <c r="D65">
         <v>2.35</v>
       </c>
-      <c r="D65">
-        <v>5.35</v>
-      </c>
-      <c r="F65">
-        <v>5.35</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>shoot</t>
         </is>
@@ -1645,13 +1430,10 @@
           <t>jeansrock</t>
         </is>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>5.35</v>
       </c>
-      <c r="F66">
-        <v>5.35</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>denim skirt</t>
         </is>
@@ -1663,16 +1445,13 @@
           <t>bowling</t>
         </is>
       </c>
-      <c r="B67">
+      <c r="C67">
+        <v>5.35</v>
+      </c>
+      <c r="D67">
         <v>0.04</v>
       </c>
-      <c r="D67">
-        <v>5.35</v>
-      </c>
-      <c r="F67">
-        <v>5.35</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>bowling</t>
         </is>
@@ -1684,16 +1463,13 @@
           <t>hammerwerfen</t>
         </is>
       </c>
-      <c r="B68">
+      <c r="C68">
+        <v>5.35</v>
+      </c>
+      <c r="D68">
         <v>0.11</v>
       </c>
-      <c r="D68">
-        <v>5.35</v>
-      </c>
-      <c r="F68">
-        <v>5.35</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>hammer throwing</t>
         </is>
@@ -1705,16 +1481,13 @@
           <t>judo</t>
         </is>
       </c>
-      <c r="B69">
+      <c r="C69">
+        <v>5.35</v>
+      </c>
+      <c r="D69">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D69">
-        <v>5.35</v>
-      </c>
-      <c r="F69">
-        <v>5.35</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>judo</t>
         </is>
@@ -1729,10 +1502,7 @@
       <c r="C70">
         <v>5.36</v>
       </c>
-      <c r="F70">
-        <v>5.36</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>airport</t>
         </is>
@@ -1747,10 +1517,7 @@
       <c r="C71">
         <v>5.36</v>
       </c>
-      <c r="F71">
-        <v>5.36</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>pit</t>
         </is>
@@ -1765,10 +1532,7 @@
       <c r="C72">
         <v>5.36</v>
       </c>
-      <c r="F72">
-        <v>5.36</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>january</t>
         </is>
@@ -1783,10 +1547,7 @@
       <c r="C73">
         <v>5.36</v>
       </c>
-      <c r="F73">
-        <v>5.36</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>seal</t>
         </is>
@@ -1801,10 +1562,7 @@
       <c r="C74">
         <v>5.36</v>
       </c>
-      <c r="F74">
-        <v>5.36</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>scare</t>
         </is>
@@ -1819,10 +1577,7 @@
       <c r="C75">
         <v>5.37</v>
       </c>
-      <c r="F75">
-        <v>5.37</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>ash</t>
         </is>
@@ -1837,10 +1592,7 @@
       <c r="C76">
         <v>5.37</v>
       </c>
-      <c r="F76">
-        <v>5.37</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>harvest</t>
         </is>
@@ -1855,10 +1607,7 @@
       <c r="C77">
         <v>5.37</v>
       </c>
-      <c r="F77">
-        <v>5.37</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>be in a mood</t>
         </is>
@@ -1873,10 +1622,7 @@
       <c r="C78">
         <v>5.37</v>
       </c>
-      <c r="F78">
-        <v>5.37</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>portion</t>
         </is>
@@ -1891,10 +1637,7 @@
       <c r="C79">
         <v>5.38</v>
       </c>
-      <c r="F79">
-        <v>5.38</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>celebration</t>
         </is>
@@ -1909,10 +1652,7 @@
       <c r="C80">
         <v>5.38</v>
       </c>
-      <c r="F80">
-        <v>5.38</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>oat</t>
         </is>
@@ -1927,10 +1667,7 @@
       <c r="C81">
         <v>5.38</v>
       </c>
-      <c r="F81">
-        <v>5.38</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>shampoo</t>
         </is>
@@ -1942,25 +1679,22 @@
           <t>feilen</t>
         </is>
       </c>
-      <c r="E82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C82">
         <v>5.38</v>
       </c>
-      <c r="F82">
-        <v>5.38</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
           <t>file</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1970,16 +1704,13 @@
           <t>zeisig</t>
         </is>
       </c>
-      <c r="B83">
+      <c r="C83">
+        <v>5.39</v>
+      </c>
+      <c r="D83">
         <v>0.37</v>
       </c>
-      <c r="D83">
-        <v>5.39</v>
-      </c>
-      <c r="F83">
-        <v>5.39</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>siskin</t>
         </is>
@@ -1994,10 +1725,7 @@
       <c r="C84">
         <v>5.39</v>
       </c>
-      <c r="F84">
-        <v>5.39</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>alphabet</t>
         </is>
@@ -2012,10 +1740,7 @@
       <c r="C85">
         <v>5.39</v>
       </c>
-      <c r="F85">
-        <v>5.39</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>reader</t>
         </is>
@@ -2030,10 +1755,7 @@
       <c r="C86">
         <v>5.39</v>
       </c>
-      <c r="F86">
-        <v>5.39</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>spark</t>
         </is>
@@ -2048,10 +1770,7 @@
       <c r="C87">
         <v>5.39</v>
       </c>
-      <c r="F87">
-        <v>5.39</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>calendar</t>
         </is>
@@ -2066,10 +1785,7 @@
       <c r="C88">
         <v>5.4</v>
       </c>
-      <c r="F88">
-        <v>5.4</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>example</t>
         </is>
@@ -2084,10 +1800,7 @@
       <c r="C89">
         <v>5.4</v>
       </c>
-      <c r="F89">
-        <v>5.4</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>gait</t>
         </is>
@@ -2102,10 +1815,7 @@
       <c r="C90">
         <v>5.4</v>
       </c>
-      <c r="F90">
-        <v>5.4</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>worth</t>
         </is>
@@ -2117,16 +1827,13 @@
           <t>lötkolben</t>
         </is>
       </c>
-      <c r="B91">
+      <c r="C91">
+        <v>5.4</v>
+      </c>
+      <c r="D91">
         <v>0.13</v>
       </c>
-      <c r="D91">
-        <v>5.4</v>
-      </c>
-      <c r="F91">
-        <v>5.4</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>soldering iron</t>
         </is>
@@ -2138,16 +1845,13 @@
           <t>reinigungskraft</t>
         </is>
       </c>
-      <c r="B92">
+      <c r="C92">
+        <v>5.4</v>
+      </c>
+      <c r="D92">
         <v>0.11</v>
       </c>
-      <c r="D92">
-        <v>5.4</v>
-      </c>
-      <c r="F92">
-        <v>5.4</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>cleaner</t>
         </is>
@@ -2162,10 +1866,7 @@
       <c r="C93">
         <v>5.41</v>
       </c>
-      <c r="F93">
-        <v>5.41</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>block</t>
         </is>
@@ -2180,10 +1881,7 @@
       <c r="C94">
         <v>5.41</v>
       </c>
-      <c r="F94">
-        <v>5.41</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>bow</t>
         </is>
@@ -2198,10 +1896,7 @@
       <c r="C95">
         <v>5.41</v>
       </c>
-      <c r="F95">
-        <v>5.41</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>sentence</t>
         </is>
@@ -2216,10 +1911,7 @@
       <c r="C96">
         <v>5.41</v>
       </c>
-      <c r="F96">
-        <v>5.41</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>bashful</t>
         </is>
@@ -2234,10 +1926,7 @@
       <c r="C97">
         <v>5.41</v>
       </c>
-      <c r="F97">
-        <v>5.41</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>shoemaker</t>
         </is>
@@ -2252,10 +1941,7 @@
       <c r="C98">
         <v>5.41</v>
       </c>
-      <c r="F98">
-        <v>5.41</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>sorcery</t>
         </is>
@@ -2267,16 +1953,13 @@
           <t>stepptanz</t>
         </is>
       </c>
-      <c r="B99">
+      <c r="C99">
+        <v>5.41</v>
+      </c>
+      <c r="D99">
         <v>0.01</v>
       </c>
-      <c r="D99">
-        <v>5.41</v>
-      </c>
-      <c r="F99">
-        <v>5.41</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>tap dance</t>
         </is>
@@ -2291,10 +1974,7 @@
       <c r="C100">
         <v>5.42</v>
       </c>
-      <c r="F100">
-        <v>5.42</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>oak</t>
         </is>
@@ -2309,10 +1989,7 @@
       <c r="C101">
         <v>5.42</v>
       </c>
-      <c r="F101">
-        <v>5.42</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
@@ -2324,19 +2001,13 @@
           <t>fotograf</t>
         </is>
       </c>
-      <c r="B102">
-        <v>2.7</v>
-      </c>
       <c r="C102">
         <v>5.42</v>
       </c>
       <c r="D102">
-        <v>3.05</v>
-      </c>
-      <c r="F102">
-        <v>5.42</v>
-      </c>
-      <c r="H102" t="inlineStr">
+        <v>2.7</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>photographer</t>
         </is>
@@ -2351,10 +2022,7 @@
       <c r="C103">
         <v>5.42</v>
       </c>
-      <c r="F103">
-        <v>5.42</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>giggling</t>
         </is>
@@ -2369,10 +2037,7 @@
       <c r="C104">
         <v>5.42</v>
       </c>
-      <c r="F104">
-        <v>5.42</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>luck</t>
         </is>
@@ -2387,10 +2052,7 @@
       <c r="C105">
         <v>5.42</v>
       </c>
-      <c r="F105">
-        <v>5.42</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>magnifying glass</t>
         </is>
@@ -2405,10 +2067,7 @@
       <c r="C106">
         <v>5.42</v>
       </c>
-      <c r="F106">
-        <v>5.42</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>bark</t>
         </is>
@@ -2423,10 +2082,7 @@
       <c r="C107">
         <v>5.42</v>
       </c>
-      <c r="F107">
-        <v>5.42</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>remain silent</t>
         </is>
@@ -2438,16 +2094,13 @@
           <t>reibeisen</t>
         </is>
       </c>
-      <c r="B108">
+      <c r="C108">
+        <v>5.42</v>
+      </c>
+      <c r="D108">
         <v>0.31</v>
       </c>
-      <c r="D108">
-        <v>5.42</v>
-      </c>
-      <c r="F108">
-        <v>5.42</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>grater</t>
         </is>
@@ -2459,16 +2112,13 @@
           <t>vierkant</t>
         </is>
       </c>
-      <c r="B109">
+      <c r="C109">
+        <v>5.42</v>
+      </c>
+      <c r="D109">
         <v>0.16</v>
       </c>
-      <c r="D109">
-        <v>5.42</v>
-      </c>
-      <c r="F109">
-        <v>5.42</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>square box wrench</t>
         </is>
@@ -2480,19 +2130,13 @@
           <t>eidechse</t>
         </is>
       </c>
-      <c r="B110">
-        <v>2.58</v>
-      </c>
       <c r="C110">
         <v>5.43</v>
       </c>
       <c r="D110">
-        <v>3.15</v>
-      </c>
-      <c r="F110">
-        <v>5.43</v>
-      </c>
-      <c r="H110" t="inlineStr">
+        <v>2.58</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>lizard</t>
         </is>
@@ -2507,10 +2151,7 @@
       <c r="C111">
         <v>5.43</v>
       </c>
-      <c r="F111">
-        <v>5.43</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -2525,10 +2166,7 @@
       <c r="C112">
         <v>5.43</v>
       </c>
-      <c r="F112">
-        <v>5.43</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>praise</t>
         </is>
@@ -2543,10 +2181,7 @@
       <c r="C113">
         <v>5.43</v>
       </c>
-      <c r="F113">
-        <v>5.43</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>market</t>
         </is>
@@ -2561,10 +2196,7 @@
       <c r="C114">
         <v>5.43</v>
       </c>
-      <c r="F114">
-        <v>5.43</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>robot</t>
         </is>
@@ -2579,10 +2211,7 @@
       <c r="C115">
         <v>5.43</v>
       </c>
-      <c r="F115">
-        <v>5.43</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>newsprint</t>
         </is>
@@ -2597,10 +2226,7 @@
       <c r="C116">
         <v>5.44</v>
       </c>
-      <c r="F116">
-        <v>5.44</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>honest</t>
         </is>
@@ -2612,19 +2238,13 @@
           <t>kutsche</t>
         </is>
       </c>
-      <c r="B117">
-        <v>3.38</v>
-      </c>
       <c r="C117">
         <v>5.44</v>
       </c>
       <c r="D117">
-        <v>2.45</v>
-      </c>
-      <c r="F117">
-        <v>5.44</v>
-      </c>
-      <c r="H117" t="inlineStr">
+        <v>3.38</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>carriage</t>
         </is>
@@ -2639,10 +2259,7 @@
       <c r="C118">
         <v>5.44</v>
       </c>
-      <c r="F118">
-        <v>5.44</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>folder</t>
         </is>
@@ -2657,10 +2274,7 @@
       <c r="C119">
         <v>5.44</v>
       </c>
-      <c r="F119">
-        <v>5.44</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>wax</t>
         </is>
@@ -2675,10 +2289,7 @@
       <c r="C120">
         <v>5.44</v>
       </c>
-      <c r="F120">
-        <v>5.44</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>admit</t>
         </is>
@@ -2690,16 +2301,13 @@
           <t>ohrensessel</t>
         </is>
       </c>
-      <c r="B121">
+      <c r="C121">
+        <v>5.44</v>
+      </c>
+      <c r="D121">
         <v>0.29</v>
       </c>
-      <c r="D121">
-        <v>5.44</v>
-      </c>
-      <c r="F121">
-        <v>5.44</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>wing chair</t>
         </is>
@@ -2711,16 +2319,13 @@
           <t>schelle</t>
         </is>
       </c>
-      <c r="B122">
+      <c r="C122">
+        <v>5.44</v>
+      </c>
+      <c r="D122">
         <v>1.69</v>
       </c>
-      <c r="D122">
-        <v>5.44</v>
-      </c>
-      <c r="F122">
-        <v>5.44</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>bells</t>
         </is>
@@ -2735,10 +2340,7 @@
       <c r="C123">
         <v>5.45</v>
       </c>
-      <c r="F123">
-        <v>5.45</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>approximately</t>
         </is>
@@ -2753,10 +2355,7 @@
       <c r="C124">
         <v>5.45</v>
       </c>
-      <c r="F124">
-        <v>5.45</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>worries</t>
         </is>
@@ -2768,16 +2367,13 @@
           <t>schminktisch</t>
         </is>
       </c>
-      <c r="B125">
+      <c r="C125">
+        <v>5.45</v>
+      </c>
+      <c r="D125">
         <v>0.1</v>
       </c>
-      <c r="D125">
-        <v>5.45</v>
-      </c>
-      <c r="F125">
-        <v>5.45</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>dressing table</t>
         </is>
@@ -2789,16 +2385,13 @@
           <t>fagott</t>
         </is>
       </c>
-      <c r="B126">
+      <c r="C126">
+        <v>5.45</v>
+      </c>
+      <c r="D126">
         <v>0.92</v>
       </c>
-      <c r="D126">
-        <v>5.45</v>
-      </c>
-      <c r="F126">
-        <v>5.45</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>bassoon</t>
         </is>
@@ -2810,16 +2403,13 @@
           <t>blattsäge</t>
         </is>
       </c>
-      <c r="B127">
+      <c r="C127">
+        <v>5.45</v>
+      </c>
+      <c r="D127">
         <v>0.01</v>
       </c>
-      <c r="D127">
-        <v>5.45</v>
-      </c>
-      <c r="F127">
-        <v>5.45</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>pad saw</t>
         </is>
@@ -2831,16 +2421,13 @@
           <t>buchbinder</t>
         </is>
       </c>
-      <c r="B128">
+      <c r="C128">
+        <v>5.45</v>
+      </c>
+      <c r="D128">
         <v>3.24</v>
       </c>
-      <c r="D128">
-        <v>5.45</v>
-      </c>
-      <c r="F128">
-        <v>5.45</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>bookbinder</t>
         </is>
@@ -2852,13 +2439,10 @@
           <t>zahnarzthelfer</t>
         </is>
       </c>
-      <c r="D129">
+      <c r="C129">
         <v>5.45</v>
       </c>
-      <c r="F129">
-        <v>5.45</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>dental assistant</t>
         </is>
@@ -2870,16 +2454,13 @@
           <t>arzthelfer</t>
         </is>
       </c>
-      <c r="B130">
+      <c r="C130">
+        <v>5.45</v>
+      </c>
+      <c r="D130">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D130">
-        <v>5.45</v>
-      </c>
-      <c r="F130">
-        <v>5.45</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>doctor's assistant</t>
         </is>
@@ -2891,13 +2472,10 @@
           <t>kieferorthopäde</t>
         </is>
       </c>
-      <c r="D131">
+      <c r="C131">
         <v>5.45</v>
       </c>
-      <c r="F131">
-        <v>5.45</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>orthodontist</t>
         </is>
@@ -2909,16 +2487,13 @@
           <t>steinmetz</t>
         </is>
       </c>
-      <c r="B132">
+      <c r="C132">
+        <v>5.45</v>
+      </c>
+      <c r="D132">
         <v>1.32</v>
       </c>
-      <c r="D132">
-        <v>5.45</v>
-      </c>
-      <c r="F132">
-        <v>5.45</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>stonemason</t>
         </is>
@@ -2933,10 +2508,7 @@
       <c r="C133">
         <v>5.46</v>
       </c>
-      <c r="F133">
-        <v>5.46</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>purchase</t>
         </is>
@@ -2951,10 +2523,7 @@
       <c r="C134">
         <v>5.46</v>
       </c>
-      <c r="F134">
-        <v>5.46</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>join</t>
         </is>
@@ -2969,10 +2538,7 @@
       <c r="C135">
         <v>5.47</v>
       </c>
-      <c r="F135">
-        <v>5.47</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>silly</t>
         </is>
@@ -2987,10 +2553,7 @@
       <c r="C136">
         <v>5.47</v>
       </c>
-      <c r="F136">
-        <v>5.47</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>by heart</t>
         </is>
@@ -3005,10 +2568,7 @@
       <c r="C137">
         <v>5.47</v>
       </c>
-      <c r="F137">
-        <v>5.47</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>accompany</t>
         </is>
@@ -3023,10 +2583,7 @@
       <c r="C138">
         <v>5.47</v>
       </c>
-      <c r="F138">
-        <v>5.47</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>antenna</t>
         </is>
@@ -3041,10 +2598,7 @@
       <c r="C139">
         <v>5.47</v>
       </c>
-      <c r="F139">
-        <v>5.47</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>edge</t>
         </is>
@@ -3059,10 +2613,7 @@
       <c r="C140">
         <v>5.47</v>
       </c>
-      <c r="F140">
-        <v>5.47</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>chest-of-drawers</t>
         </is>
@@ -3077,10 +2628,7 @@
       <c r="C141">
         <v>5.47</v>
       </c>
-      <c r="F141">
-        <v>5.47</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>pump</t>
         </is>
@@ -3095,19 +2643,13 @@
       <c r="C142">
         <v>5.47</v>
       </c>
-      <c r="F142">
-        <v>5.47</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="E142">
+        <v>1.95</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>key</t>
         </is>
-      </c>
-      <c r="I142">
-        <v>1.95</v>
-      </c>
-      <c r="J142">
-        <v>4.27</v>
       </c>
     </row>
     <row r="143">
@@ -3119,10 +2661,7 @@
       <c r="C143">
         <v>5.47</v>
       </c>
-      <c r="F143">
-        <v>5.47</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>animated film</t>
         </is>
@@ -3137,10 +2676,7 @@
       <c r="C144">
         <v>5.47</v>
       </c>
-      <c r="F144">
-        <v>5.47</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>traffic</t>
         </is>
@@ -3152,16 +2688,13 @@
           <t>piccoloflöte</t>
         </is>
       </c>
-      <c r="B145">
+      <c r="C145">
+        <v>5.47</v>
+      </c>
+      <c r="D145">
         <v>0.03</v>
       </c>
-      <c r="D145">
-        <v>5.47</v>
-      </c>
-      <c r="F145">
-        <v>5.47</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>piccolo</t>
         </is>
@@ -3173,16 +2706,13 @@
           <t>mauersegler</t>
         </is>
       </c>
-      <c r="B146">
+      <c r="C146">
+        <v>5.47</v>
+      </c>
+      <c r="D146">
         <v>0.23</v>
       </c>
-      <c r="D146">
-        <v>5.47</v>
-      </c>
-      <c r="F146">
-        <v>5.47</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>swift</t>
         </is>
@@ -3194,16 +2724,13 @@
           <t>reibebrett</t>
         </is>
       </c>
-      <c r="B147">
+      <c r="C147">
+        <v>5.47</v>
+      </c>
+      <c r="D147">
         <v>0.01</v>
       </c>
-      <c r="D147">
-        <v>5.47</v>
-      </c>
-      <c r="F147">
-        <v>5.47</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>rubbing board</t>
         </is>
@@ -3218,10 +2745,7 @@
       <c r="C148">
         <v>5.48</v>
       </c>
-      <c r="F148">
-        <v>5.48</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>blind</t>
         </is>
@@ -3236,10 +2760,7 @@
       <c r="C149">
         <v>5.48</v>
       </c>
-      <c r="F149">
-        <v>5.48</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>crutch</t>
         </is>
@@ -3254,10 +2775,7 @@
       <c r="C150">
         <v>5.5</v>
       </c>
-      <c r="F150">
-        <v>5.5</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>smell</t>
         </is>
@@ -3272,10 +2790,7 @@
       <c r="C151">
         <v>5.5</v>
       </c>
-      <c r="F151">
-        <v>5.5</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>wedding ring</t>
         </is>
@@ -3290,10 +2805,7 @@
       <c r="C152">
         <v>5.5</v>
       </c>
-      <c r="F152">
-        <v>5.5</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>electric</t>
         </is>
@@ -3308,19 +2820,13 @@
       <c r="C153">
         <v>5.5</v>
       </c>
-      <c r="F153">
-        <v>5.5</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="E153">
+        <v>7.71</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>telescope</t>
         </is>
-      </c>
-      <c r="I153">
-        <v>7.71</v>
-      </c>
-      <c r="J153">
-        <v>6.95</v>
       </c>
     </row>
     <row r="154">
@@ -3332,10 +2838,7 @@
       <c r="C154">
         <v>5.5</v>
       </c>
-      <c r="F154">
-        <v>5.5</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>heal</t>
         </is>
@@ -3350,10 +2853,7 @@
       <c r="C155">
         <v>5.5</v>
       </c>
-      <c r="F155">
-        <v>5.5</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>hundred</t>
         </is>
@@ -3368,19 +2868,13 @@
       <c r="C156">
         <v>5.5</v>
       </c>
-      <c r="F156">
-        <v>5.5</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="E156">
+        <v>2.09</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>carrot</t>
         </is>
-      </c>
-      <c r="I156">
-        <v>2.09</v>
-      </c>
-      <c r="J156">
-        <v>3.05</v>
       </c>
     </row>
     <row r="157">
@@ -3392,10 +2886,7 @@
       <c r="C157">
         <v>5.5</v>
       </c>
-      <c r="F157">
-        <v>5.5</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>solve</t>
         </is>
@@ -3410,10 +2901,7 @@
       <c r="C158">
         <v>5.5</v>
       </c>
-      <c r="F158">
-        <v>5.5</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -3428,10 +2916,7 @@
       <c r="C159">
         <v>5.5</v>
       </c>
-      <c r="F159">
-        <v>5.5</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
@@ -3446,10 +2931,7 @@
       <c r="C160">
         <v>5.5</v>
       </c>
-      <c r="F160">
-        <v>5.5</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>emergency</t>
         </is>
@@ -3464,10 +2946,7 @@
       <c r="C161">
         <v>5.5</v>
       </c>
-      <c r="F161">
-        <v>5.5</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>salamander</t>
         </is>
@@ -3482,10 +2961,7 @@
       <c r="C162">
         <v>5.5</v>
       </c>
-      <c r="F162">
-        <v>5.5</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>shower</t>
         </is>
@@ -3500,10 +2976,7 @@
       <c r="C163">
         <v>5.5</v>
       </c>
-      <c r="F163">
-        <v>5.5</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>sink</t>
         </is>
@@ -3518,10 +2991,7 @@
       <c r="C164">
         <v>5.5</v>
       </c>
-      <c r="F164">
-        <v>5.5</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>depth</t>
         </is>
@@ -3536,10 +3006,7 @@
       <c r="C165">
         <v>5.5</v>
       </c>
-      <c r="F165">
-        <v>5.5</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>spell</t>
         </is>
@@ -3551,16 +3018,13 @@
           <t>tarantel</t>
         </is>
       </c>
-      <c r="B166">
+      <c r="C166">
+        <v>5.5</v>
+      </c>
+      <c r="D166">
         <v>0.25</v>
       </c>
-      <c r="D166">
-        <v>5.5</v>
-      </c>
-      <c r="F166">
-        <v>5.5</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>tarantula</t>
         </is>
@@ -3572,16 +3036,13 @@
           <t>schwarzstorch</t>
         </is>
       </c>
-      <c r="B167">
+      <c r="C167">
+        <v>5.5</v>
+      </c>
+      <c r="D167">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D167">
-        <v>5.5</v>
-      </c>
-      <c r="F167">
-        <v>5.5</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>black stork</t>
         </is>
@@ -3593,16 +3054,13 @@
           <t>chilischote</t>
         </is>
       </c>
-      <c r="B168">
+      <c r="C168">
+        <v>5.5</v>
+      </c>
+      <c r="D168">
         <v>0.01</v>
       </c>
-      <c r="D168">
-        <v>5.5</v>
-      </c>
-      <c r="F168">
-        <v>5.5</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>chilli pepper</t>
         </is>
@@ -3614,16 +3072,13 @@
           <t>steckschlüssel</t>
         </is>
       </c>
-      <c r="B169">
+      <c r="C169">
+        <v>5.5</v>
+      </c>
+      <c r="D169">
         <v>0.01</v>
       </c>
-      <c r="D169">
-        <v>5.5</v>
-      </c>
-      <c r="F169">
-        <v>5.5</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>socket</t>
         </is>
@@ -3635,16 +3090,13 @@
           <t>laborant</t>
         </is>
       </c>
-      <c r="B170">
+      <c r="C170">
+        <v>5.5</v>
+      </c>
+      <c r="D170">
         <v>0.89</v>
       </c>
-      <c r="D170">
-        <v>5.5</v>
-      </c>
-      <c r="F170">
-        <v>5.5</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>lab technician</t>
         </is>
@@ -3656,16 +3108,13 @@
           <t>masseur</t>
         </is>
       </c>
-      <c r="B171">
+      <c r="C171">
+        <v>5.5</v>
+      </c>
+      <c r="D171">
         <v>0.66</v>
       </c>
-      <c r="D171">
-        <v>5.5</v>
-      </c>
-      <c r="F171">
-        <v>5.5</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>masseur</t>
         </is>
@@ -3677,16 +3126,13 @@
           <t>schiffbauer</t>
         </is>
       </c>
-      <c r="B172">
+      <c r="C172">
+        <v>5.5</v>
+      </c>
+      <c r="D172">
         <v>0.19</v>
       </c>
-      <c r="D172">
-        <v>5.5</v>
-      </c>
-      <c r="F172">
-        <v>5.5</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>shipbuilder</t>
         </is>
@@ -3701,10 +3147,7 @@
       <c r="C173">
         <v>5.52</v>
       </c>
-      <c r="F173">
-        <v>5.52</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>rise</t>
         </is>
@@ -3716,16 +3159,13 @@
           <t>hornkäfer</t>
         </is>
       </c>
-      <c r="B174">
+      <c r="C174">
+        <v>5.53</v>
+      </c>
+      <c r="D174">
         <v>0.01</v>
       </c>
-      <c r="D174">
-        <v>5.53</v>
-      </c>
-      <c r="F174">
-        <v>5.53</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>rhinocerous horn beetle</t>
         </is>
@@ -3737,16 +3177,13 @@
           <t>sperber</t>
         </is>
       </c>
-      <c r="B175">
+      <c r="C175">
+        <v>5.53</v>
+      </c>
+      <c r="D175">
         <v>0.74</v>
       </c>
-      <c r="D175">
-        <v>5.53</v>
-      </c>
-      <c r="F175">
-        <v>5.53</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>sparrowhawk</t>
         </is>
@@ -3758,16 +3195,13 @@
           <t>fleischtomate</t>
         </is>
       </c>
-      <c r="B176">
+      <c r="C176">
+        <v>5.53</v>
+      </c>
+      <c r="D176">
         <v>0.02</v>
       </c>
-      <c r="D176">
-        <v>5.53</v>
-      </c>
-      <c r="F176">
-        <v>5.53</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>beef tomato</t>
         </is>
@@ -3779,16 +3213,13 @@
           <t>stieglitz</t>
         </is>
       </c>
-      <c r="B177">
+      <c r="C177">
+        <v>5.53</v>
+      </c>
+      <c r="D177">
         <v>0.52</v>
       </c>
-      <c r="D177">
-        <v>5.53</v>
-      </c>
-      <c r="F177">
-        <v>5.53</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>goldfinch</t>
         </is>
@@ -3800,16 +3231,13 @@
           <t>balalaika</t>
         </is>
       </c>
-      <c r="B178">
+      <c r="C178">
+        <v>5.53</v>
+      </c>
+      <c r="D178">
         <v>0.1</v>
       </c>
-      <c r="D178">
-        <v>5.53</v>
-      </c>
-      <c r="F178">
-        <v>5.53</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>balalaika</t>
         </is>
@@ -3824,10 +3252,7 @@
       <c r="C179">
         <v>5.53</v>
       </c>
-      <c r="F179">
-        <v>5.53</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>health</t>
         </is>
@@ -3842,10 +3267,7 @@
       <c r="C180">
         <v>5.53</v>
       </c>
-      <c r="F180">
-        <v>5.53</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>hotel</t>
         </is>
@@ -3860,10 +3282,7 @@
       <c r="C181">
         <v>5.53</v>
       </c>
-      <c r="F181">
-        <v>5.53</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>powder</t>
         </is>
@@ -3878,10 +3297,7 @@
       <c r="C182">
         <v>5.53</v>
       </c>
-      <c r="F182">
-        <v>5.53</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>scrap metal</t>
         </is>
@@ -3896,10 +3312,7 @@
       <c r="C183">
         <v>5.53</v>
       </c>
-      <c r="F183">
-        <v>5.53</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>worry</t>
         </is>
@@ -3914,10 +3327,7 @@
       <c r="C184">
         <v>5.53</v>
       </c>
-      <c r="F184">
-        <v>5.53</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>forty</t>
         </is>
@@ -3932,10 +3342,7 @@
       <c r="C185">
         <v>5.54</v>
       </c>
-      <c r="F185">
-        <v>5.54</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>appetite</t>
         </is>
@@ -3950,10 +3357,7 @@
       <c r="C186">
         <v>5.54</v>
       </c>
-      <c r="F186">
-        <v>5.54</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>finish</t>
         </is>
@@ -3968,10 +3372,7 @@
       <c r="C187">
         <v>5.54</v>
       </c>
-      <c r="F187">
-        <v>5.54</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>rascal</t>
         </is>
@@ -3986,10 +3387,7 @@
       <c r="C188">
         <v>5.55</v>
       </c>
-      <c r="F188">
-        <v>5.55</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>ripe</t>
         </is>
@@ -4004,10 +3402,7 @@
       <c r="C189">
         <v>5.55</v>
       </c>
-      <c r="F189">
-        <v>5.55</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>exciting</t>
         </is>
@@ -4019,16 +3414,13 @@
           <t>slipper</t>
         </is>
       </c>
-      <c r="B190">
+      <c r="C190">
+        <v>5.55</v>
+      </c>
+      <c r="D190">
         <v>0.1</v>
       </c>
-      <c r="D190">
-        <v>5.55</v>
-      </c>
-      <c r="F190">
-        <v>5.55</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>slip-on shoes</t>
         </is>
@@ -4040,16 +3432,13 @@
           <t>beistelltisch</t>
         </is>
       </c>
-      <c r="B191">
+      <c r="C191">
+        <v>5.55</v>
+      </c>
+      <c r="D191">
         <v>0.08</v>
       </c>
-      <c r="D191">
-        <v>5.55</v>
-      </c>
-      <c r="F191">
-        <v>5.55</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>occasional table</t>
         </is>
@@ -4061,13 +3450,10 @@
           <t>fallschirmspringen</t>
         </is>
       </c>
-      <c r="D192">
+      <c r="C192">
         <v>5.55</v>
       </c>
-      <c r="F192">
-        <v>5.55</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>parachuting</t>
         </is>
@@ -4079,16 +3465,13 @@
           <t>tischfußball</t>
         </is>
       </c>
-      <c r="B193">
+      <c r="C193">
+        <v>5.55</v>
+      </c>
+      <c r="D193">
         <v>0.01</v>
       </c>
-      <c r="D193">
-        <v>5.55</v>
-      </c>
-      <c r="F193">
-        <v>5.55</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>table football</t>
         </is>
@@ -4100,16 +3483,13 @@
           <t>biologe</t>
         </is>
       </c>
-      <c r="B194">
+      <c r="C194">
+        <v>5.55</v>
+      </c>
+      <c r="D194">
         <v>1.78</v>
       </c>
-      <c r="D194">
-        <v>5.55</v>
-      </c>
-      <c r="F194">
-        <v>5.55</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>biologist</t>
         </is>
@@ -4121,16 +3501,13 @@
           <t>regisseur</t>
         </is>
       </c>
-      <c r="B195">
+      <c r="C195">
+        <v>5.55</v>
+      </c>
+      <c r="D195">
         <v>9.92</v>
       </c>
-      <c r="D195">
-        <v>5.55</v>
-      </c>
-      <c r="F195">
-        <v>5.55</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>director</t>
         </is>
@@ -4142,16 +3519,13 @@
           <t>sekretär</t>
         </is>
       </c>
-      <c r="B196">
+      <c r="C196">
+        <v>5.55</v>
+      </c>
+      <c r="D196">
         <v>28.1</v>
       </c>
-      <c r="D196">
-        <v>5.55</v>
-      </c>
-      <c r="F196">
-        <v>5.55</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>secretary</t>
         </is>
@@ -4163,13 +3537,10 @@
           <t>tierarzthelfer</t>
         </is>
       </c>
-      <c r="D197">
+      <c r="C197">
         <v>5.55</v>
       </c>
-      <c r="F197">
-        <v>5.55</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>veterinary assistant</t>
         </is>
@@ -4181,13 +3552,10 @@
           <t>eisbergsalat</t>
         </is>
       </c>
-      <c r="D198">
+      <c r="C198">
         <v>5.56</v>
       </c>
-      <c r="F198">
-        <v>5.56</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>iceberg lettuce</t>
         </is>
@@ -4199,16 +3567,13 @@
           <t>zuckermelone</t>
         </is>
       </c>
-      <c r="B199">
+      <c r="C199">
+        <v>5.56</v>
+      </c>
+      <c r="D199">
         <v>0.01</v>
       </c>
-      <c r="D199">
-        <v>5.56</v>
-      </c>
-      <c r="F199">
-        <v>5.56</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>musk melon</t>
         </is>
@@ -4220,16 +3585,13 @@
           <t>schleifscheibe</t>
         </is>
       </c>
-      <c r="B200">
+      <c r="C200">
+        <v>5.56</v>
+      </c>
+      <c r="D200">
         <v>0.04</v>
       </c>
-      <c r="D200">
-        <v>5.56</v>
-      </c>
-      <c r="F200">
-        <v>5.56</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>grinding disk</t>
         </is>
@@ -4244,19 +3606,13 @@
       <c r="C201">
         <v>5.56</v>
       </c>
-      <c r="F201">
-        <v>5.56</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="E201">
+        <v>5.21</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>gorilla</t>
         </is>
-      </c>
-      <c r="I201">
-        <v>5.21</v>
-      </c>
-      <c r="J201">
-        <v>6.45</v>
       </c>
     </row>
     <row r="202">
@@ -4268,10 +3624,7 @@
       <c r="C202">
         <v>5.56</v>
       </c>
-      <c r="F202">
-        <v>5.56</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>do good</t>
         </is>
@@ -4286,19 +3639,13 @@
       <c r="C203">
         <v>5.56</v>
       </c>
-      <c r="F203">
-        <v>5.56</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="E203">
+        <v>4.21</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>hen</t>
         </is>
-      </c>
-      <c r="I203">
-        <v>4.21</v>
-      </c>
-      <c r="J203">
-        <v>5.21</v>
       </c>
     </row>
     <row r="204">
@@ -4310,10 +3657,7 @@
       <c r="C204">
         <v>5.56</v>
       </c>
-      <c r="F204">
-        <v>5.56</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -4325,16 +3669,13 @@
           <t>stabheuschrecke</t>
         </is>
       </c>
-      <c r="B205">
+      <c r="C205">
+        <v>5.56</v>
+      </c>
+      <c r="D205">
         <v>0.12</v>
       </c>
-      <c r="D205">
-        <v>5.56</v>
-      </c>
-      <c r="F205">
-        <v>5.56</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>stick insect</t>
         </is>
@@ -4349,10 +3690,7 @@
       <c r="C206">
         <v>5.57</v>
       </c>
-      <c r="F206">
-        <v>5.57</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>fish fingers</t>
         </is>
@@ -4367,10 +3705,7 @@
       <c r="C207">
         <v>5.57</v>
       </c>
-      <c r="F207">
-        <v>5.57</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>litre</t>
         </is>
@@ -4385,19 +3720,13 @@
       <c r="C208">
         <v>5.57</v>
       </c>
-      <c r="F208">
-        <v>5.57</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="E208">
+        <v>7.21</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>medal</t>
         </is>
-      </c>
-      <c r="I208">
-        <v>7.21</v>
-      </c>
-      <c r="J208">
-        <v>6.84</v>
       </c>
     </row>
     <row r="209">
@@ -4406,28 +3735,19 @@
           <t>pfau</t>
         </is>
       </c>
-      <c r="B209">
-        <v>1.8</v>
-      </c>
       <c r="C209">
         <v>5.57</v>
       </c>
       <c r="D209">
-        <v>3.8</v>
-      </c>
-      <c r="F209">
-        <v>5.57</v>
-      </c>
-      <c r="H209" t="inlineStr">
+        <v>1.8</v>
+      </c>
+      <c r="E209">
+        <v>7.71</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>peacock</t>
         </is>
-      </c>
-      <c r="I209">
-        <v>7.71</v>
-      </c>
-      <c r="J209">
-        <v>4.9</v>
       </c>
     </row>
     <row r="210">
@@ -4439,10 +3759,7 @@
       <c r="C210">
         <v>5.57</v>
       </c>
-      <c r="F210">
-        <v>5.57</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>rich</t>
         </is>
@@ -4457,10 +3774,7 @@
       <c r="C211">
         <v>5.57</v>
       </c>
-      <c r="F211">
-        <v>5.57</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>slime</t>
         </is>
@@ -4475,10 +3789,7 @@
       <c r="C212">
         <v>5.57</v>
       </c>
-      <c r="F212">
-        <v>5.57</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>strength</t>
         </is>
@@ -4493,10 +3804,7 @@
       <c r="C213">
         <v>5.57</v>
       </c>
-      <c r="F213">
-        <v>5.57</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>nausea</t>
         </is>
@@ -4511,10 +3819,7 @@
       <c r="C214">
         <v>5.57</v>
       </c>
-      <c r="F214">
-        <v>5.57</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>forget</t>
         </is>
@@ -4529,10 +3834,7 @@
       <c r="C215">
         <v>5.57</v>
       </c>
-      <c r="F215">
-        <v>5.57</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>injure</t>
         </is>
@@ -4547,10 +3849,7 @@
       <c r="C216">
         <v>5.58</v>
       </c>
-      <c r="F216">
-        <v>5.58</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>stupidity</t>
         </is>
@@ -4565,10 +3864,7 @@
       <c r="C217">
         <v>5.58</v>
       </c>
-      <c r="F217">
-        <v>5.58</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
@@ -4583,10 +3879,7 @@
       <c r="C218">
         <v>5.58</v>
       </c>
-      <c r="F218">
-        <v>5.58</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>spice</t>
         </is>
@@ -4601,10 +3894,7 @@
       <c r="C219">
         <v>5.58</v>
       </c>
-      <c r="F219">
-        <v>5.58</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>politeness</t>
         </is>
@@ -4619,10 +3909,7 @@
       <c r="C220">
         <v>5.58</v>
       </c>
-      <c r="F220">
-        <v>5.58</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>melody</t>
         </is>
@@ -4637,10 +3924,7 @@
       <c r="C221">
         <v>5.58</v>
       </c>
-      <c r="F221">
-        <v>5.58</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
@@ -4655,10 +3939,7 @@
       <c r="C222">
         <v>5.58</v>
       </c>
-      <c r="F222">
-        <v>5.58</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>rainy day</t>
         </is>
@@ -4673,10 +3954,7 @@
       <c r="C223">
         <v>5.59</v>
       </c>
-      <c r="F223">
-        <v>5.59</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>trap</t>
         </is>
@@ -4691,10 +3969,7 @@
       <c r="C224">
         <v>5.59</v>
       </c>
-      <c r="F224">
-        <v>5.59</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>perky</t>
         </is>
@@ -4709,10 +3984,7 @@
       <c r="C225">
         <v>5.59</v>
       </c>
-      <c r="F225">
-        <v>5.59</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>palace</t>
         </is>
@@ -4727,10 +3999,7 @@
       <c r="C226">
         <v>5.59</v>
       </c>
-      <c r="F226">
-        <v>5.59</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>worn out</t>
         </is>
@@ -4745,10 +4014,7 @@
       <c r="C227">
         <v>5.6</v>
       </c>
-      <c r="F227">
-        <v>5.6</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -4763,10 +4029,7 @@
       <c r="C228">
         <v>5.6</v>
       </c>
-      <c r="F228">
-        <v>5.6</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>stag</t>
         </is>
@@ -4781,10 +4044,7 @@
       <c r="C229">
         <v>5.6</v>
       </c>
-      <c r="F229">
-        <v>5.6</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>adhesive</t>
         </is>
@@ -4799,10 +4059,7 @@
       <c r="C230">
         <v>5.6</v>
       </c>
-      <c r="F230">
-        <v>5.6</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -4817,10 +4074,7 @@
       <c r="C231">
         <v>5.6</v>
       </c>
-      <c r="F231">
-        <v>5.6</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>tyres screeching</t>
         </is>
@@ -4835,10 +4089,7 @@
       <c r="C232">
         <v>5.6</v>
       </c>
-      <c r="F232">
-        <v>5.6</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>protection</t>
         </is>
@@ -4853,10 +4104,7 @@
       <c r="C233">
         <v>5.6</v>
       </c>
-      <c r="F233">
-        <v>5.6</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>sole</t>
         </is>
@@ -4871,10 +4119,7 @@
       <c r="C234">
         <v>5.6</v>
       </c>
-      <c r="F234">
-        <v>5.6</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>get lost</t>
         </is>
@@ -4889,10 +4134,7 @@
       <c r="C235">
         <v>5.6</v>
       </c>
-      <c r="F235">
-        <v>5.6</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>tame</t>
         </is>
@@ -4904,16 +4146,13 @@
           <t>billard</t>
         </is>
       </c>
-      <c r="B236">
+      <c r="C236">
+        <v>5.6</v>
+      </c>
+      <c r="D236">
         <v>1</v>
       </c>
-      <c r="D236">
-        <v>5.6</v>
-      </c>
-      <c r="F236">
-        <v>5.6</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>billiards</t>
         </is>
@@ -4925,16 +4164,13 @@
           <t>techniker</t>
         </is>
       </c>
-      <c r="B237">
+      <c r="C237">
+        <v>5.6</v>
+      </c>
+      <c r="D237">
         <v>8.35</v>
       </c>
-      <c r="D237">
-        <v>5.6</v>
-      </c>
-      <c r="F237">
-        <v>5.6</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>technician</t>
         </is>
@@ -4949,10 +4185,7 @@
       <c r="C238">
         <v>5.61</v>
       </c>
-      <c r="F238">
-        <v>5.61</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>invitation</t>
         </is>
@@ -4967,10 +4200,7 @@
       <c r="C239">
         <v>5.61</v>
       </c>
-      <c r="F239">
-        <v>5.61</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>fountain pen</t>
         </is>
@@ -4985,10 +4215,7 @@
       <c r="C240">
         <v>5.61</v>
       </c>
-      <c r="F240">
-        <v>5.61</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>secret</t>
         </is>
@@ -5003,10 +4230,7 @@
       <c r="C241">
         <v>5.61</v>
       </c>
-      <c r="F241">
-        <v>5.61</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
@@ -5021,10 +4245,7 @@
       <c r="C242">
         <v>5.61</v>
       </c>
-      <c r="F242">
-        <v>5.61</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>ambush</t>
         </is>
@@ -5039,19 +4260,13 @@
       <c r="C243">
         <v>5.61</v>
       </c>
-      <c r="F243">
-        <v>5.61</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="E243">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>ski</t>
         </is>
-      </c>
-      <c r="I243">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J243">
-        <v>7.22</v>
       </c>
     </row>
     <row r="244">
@@ -5063,10 +4278,7 @@
       <c r="C244">
         <v>5.61</v>
       </c>
-      <c r="F244">
-        <v>5.61</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>improve</t>
         </is>
@@ -5078,16 +4290,13 @@
           <t>clementine</t>
         </is>
       </c>
-      <c r="B245">
+      <c r="C245">
+        <v>5.61</v>
+      </c>
+      <c r="D245">
         <v>0.29</v>
       </c>
-      <c r="D245">
-        <v>5.61</v>
-      </c>
-      <c r="F245">
-        <v>5.61</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>clementine</t>
         </is>
@@ -5099,13 +4308,10 @@
           <t>polo-shirt</t>
         </is>
       </c>
-      <c r="D246">
+      <c r="C246">
         <v>5.61</v>
       </c>
-      <c r="F246">
-        <v>5.61</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>polo shirt</t>
         </is>
@@ -5120,10 +4326,7 @@
       <c r="C247">
         <v>5.62</v>
       </c>
-      <c r="F247">
-        <v>5.62</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>vinegar</t>
         </is>
@@ -5138,10 +4341,7 @@
       <c r="C248">
         <v>5.63</v>
       </c>
-      <c r="F248">
-        <v>5.63</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>pretzel</t>
         </is>
@@ -5156,10 +4356,7 @@
       <c r="C249">
         <v>5.63</v>
       </c>
-      <c r="F249">
-        <v>5.63</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>goulash</t>
         </is>
@@ -5174,19 +4371,13 @@
       <c r="C250">
         <v>5.63</v>
       </c>
-      <c r="F250">
-        <v>5.63</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="E250">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>cactus</t>
         </is>
-      </c>
-      <c r="I250">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J250">
-        <v>6.74</v>
       </c>
     </row>
     <row r="251">
@@ -5198,10 +4389,7 @@
       <c r="C251">
         <v>5.63</v>
       </c>
-      <c r="F251">
-        <v>5.63</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>lead</t>
         </is>
@@ -5216,10 +4404,7 @@
       <c r="C252">
         <v>5.63</v>
       </c>
-      <c r="F252">
-        <v>5.63</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>brick</t>
         </is>
@@ -5231,13 +4416,10 @@
           <t>langarmshirt</t>
         </is>
       </c>
-      <c r="D253">
+      <c r="C253">
         <v>5.63</v>
       </c>
-      <c r="F253">
-        <v>5.63</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>longsleeve shirt</t>
         </is>
@@ -5249,16 +4431,13 @@
           <t>katamaran</t>
         </is>
       </c>
-      <c r="B254">
+      <c r="C254">
+        <v>5.63</v>
+      </c>
+      <c r="D254">
         <v>0.08</v>
       </c>
-      <c r="D254">
-        <v>5.63</v>
-      </c>
-      <c r="F254">
-        <v>5.63</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>catamaran</t>
         </is>
@@ -5270,16 +4449,13 @@
           <t>kastagnette</t>
         </is>
       </c>
-      <c r="B255">
+      <c r="C255">
+        <v>5.63</v>
+      </c>
+      <c r="D255">
         <v>0.38</v>
       </c>
-      <c r="D255">
-        <v>5.63</v>
-      </c>
-      <c r="F255">
-        <v>5.63</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>castanets</t>
         </is>
@@ -5294,10 +4470,7 @@
       <c r="C256">
         <v>5.64</v>
       </c>
-      <c r="F256">
-        <v>5.64</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>something</t>
         </is>
@@ -5312,10 +4485,7 @@
       <c r="C257">
         <v>5.64</v>
       </c>
-      <c r="F257">
-        <v>5.64</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>fill</t>
         </is>
@@ -5330,10 +4500,7 @@
       <c r="C258">
         <v>5.64</v>
       </c>
-      <c r="F258">
-        <v>5.64</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>wedding</t>
         </is>
@@ -5345,28 +4512,19 @@
           <t>leopard</t>
         </is>
       </c>
-      <c r="B259">
-        <v>1.7</v>
-      </c>
       <c r="C259">
         <v>5.64</v>
       </c>
       <c r="D259">
-        <v>3.7</v>
-      </c>
-      <c r="F259">
-        <v>5.64</v>
-      </c>
-      <c r="H259" t="inlineStr">
+        <v>1.7</v>
+      </c>
+      <c r="E259">
+        <v>5.71</v>
+      </c>
+      <c r="G259" t="inlineStr">
         <is>
           <t>leopard</t>
         </is>
-      </c>
-      <c r="I259">
-        <v>5.71</v>
-      </c>
-      <c r="J259">
-        <v>6.76</v>
       </c>
     </row>
     <row r="260">
@@ -5378,10 +4536,7 @@
       <c r="C260">
         <v>5.64</v>
       </c>
-      <c r="F260">
-        <v>5.64</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>trampoline</t>
         </is>
@@ -5396,10 +4551,7 @@
       <c r="C261">
         <v>5.64</v>
       </c>
-      <c r="F261">
-        <v>5.64</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>think over</t>
         </is>
@@ -5414,10 +4566,7 @@
       <c r="C262">
         <v>5.64</v>
       </c>
-      <c r="F262">
-        <v>5.64</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>change</t>
         </is>
@@ -5432,10 +4581,7 @@
       <c r="C263">
         <v>5.64</v>
       </c>
-      <c r="F263">
-        <v>5.64</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>furious</t>
         </is>
@@ -5450,10 +4596,7 @@
       <c r="C264">
         <v>5.65</v>
       </c>
-      <c r="F264">
-        <v>5.65</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
@@ -5468,10 +4611,7 @@
       <c r="C265">
         <v>5.65</v>
       </c>
-      <c r="F265">
-        <v>5.65</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>marriage</t>
         </is>
@@ -5486,10 +4626,7 @@
       <c r="C266">
         <v>5.65</v>
       </c>
-      <c r="F266">
-        <v>5.65</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>clamber</t>
         </is>
@@ -5504,10 +4641,7 @@
       <c r="C267">
         <v>5.65</v>
       </c>
-      <c r="F267">
-        <v>5.65</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>ox</t>
         </is>
@@ -5522,10 +4656,7 @@
       <c r="C268">
         <v>5.65</v>
       </c>
-      <c r="F268">
-        <v>5.65</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>path</t>
         </is>
@@ -5540,10 +4671,7 @@
       <c r="C269">
         <v>5.65</v>
       </c>
-      <c r="F269">
-        <v>5.65</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>warning</t>
         </is>
@@ -5558,10 +4686,7 @@
       <c r="C270">
         <v>5.65</v>
       </c>
-      <c r="F270">
-        <v>5.65</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>resist</t>
         </is>
@@ -5576,10 +4701,7 @@
       <c r="C271">
         <v>5.65</v>
       </c>
-      <c r="F271">
-        <v>5.65</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>be amazed</t>
         </is>
@@ -5591,13 +4713,10 @@
           <t>kunstfliegen</t>
         </is>
       </c>
-      <c r="D272">
+      <c r="C272">
         <v>5.65</v>
       </c>
-      <c r="F272">
-        <v>5.65</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>aerobatics</t>
         </is>
@@ -5609,16 +4728,13 @@
           <t>fluglotse</t>
         </is>
       </c>
-      <c r="B273">
+      <c r="C273">
+        <v>5.65</v>
+      </c>
+      <c r="D273">
         <v>0.23</v>
       </c>
-      <c r="D273">
-        <v>5.65</v>
-      </c>
-      <c r="F273">
-        <v>5.65</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>air-traffic controller</t>
         </is>
@@ -5630,16 +4746,13 @@
           <t>jurist</t>
         </is>
       </c>
-      <c r="B274">
+      <c r="C274">
+        <v>5.65</v>
+      </c>
+      <c r="D274">
         <v>13.88</v>
       </c>
-      <c r="D274">
-        <v>5.65</v>
-      </c>
-      <c r="F274">
-        <v>5.65</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>jurist</t>
         </is>
@@ -5651,16 +4764,13 @@
           <t>cembalo</t>
         </is>
       </c>
-      <c r="B275">
+      <c r="C275">
+        <v>5.67</v>
+      </c>
+      <c r="D275">
         <v>0.93</v>
       </c>
-      <c r="D275">
-        <v>5.67</v>
-      </c>
-      <c r="F275">
-        <v>5.67</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>harpsichord</t>
         </is>
@@ -5675,10 +4785,7 @@
       <c r="C276">
         <v>5.67</v>
       </c>
-      <c r="F276">
-        <v>5.67</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>rather</t>
         </is>
@@ -5693,10 +4800,7 @@
       <c r="C277">
         <v>5.67</v>
       </c>
-      <c r="F277">
-        <v>5.67</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>sheet</t>
         </is>
@@ -5711,10 +4815,7 @@
       <c r="C278">
         <v>5.67</v>
       </c>
-      <c r="F278">
-        <v>5.67</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>handlebars</t>
         </is>
@@ -5729,10 +4830,7 @@
       <c r="C279">
         <v>5.67</v>
       </c>
-      <c r="F279">
-        <v>5.67</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>squint</t>
         </is>
@@ -5747,10 +4845,7 @@
       <c r="C280">
         <v>5.67</v>
       </c>
-      <c r="F280">
-        <v>5.67</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>steep</t>
         </is>
@@ -5765,10 +4860,7 @@
       <c r="C281">
         <v>5.68</v>
       </c>
-      <c r="F281">
-        <v>5.68</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>nearly</t>
         </is>
@@ -5783,10 +4875,7 @@
       <c r="C282">
         <v>5.68</v>
       </c>
-      <c r="F282">
-        <v>5.68</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>form</t>
         </is>
@@ -5801,10 +4890,7 @@
       <c r="C283">
         <v>5.68</v>
       </c>
-      <c r="F283">
-        <v>5.68</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>patience</t>
         </is>
@@ -5819,10 +4905,7 @@
       <c r="C284">
         <v>5.68</v>
       </c>
-      <c r="F284">
-        <v>5.68</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -5837,10 +4920,7 @@
       <c r="C285">
         <v>5.68</v>
       </c>
-      <c r="F285">
-        <v>5.68</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>wallpaper</t>
         </is>
@@ -5852,16 +4932,13 @@
           <t>korsett</t>
         </is>
       </c>
-      <c r="B286">
+      <c r="C286">
+        <v>5.68</v>
+      </c>
+      <c r="D286">
         <v>1.1</v>
       </c>
-      <c r="D286">
-        <v>5.68</v>
-      </c>
-      <c r="F286">
-        <v>5.68</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>corset</t>
         </is>
@@ -5873,16 +4950,13 @@
           <t>skateboard</t>
         </is>
       </c>
-      <c r="B287">
+      <c r="C287">
+        <v>5.68</v>
+      </c>
+      <c r="D287">
         <v>0.06</v>
       </c>
-      <c r="D287">
-        <v>5.68</v>
-      </c>
-      <c r="F287">
-        <v>5.68</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>skateboard</t>
         </is>
@@ -5897,10 +4971,7 @@
       <c r="C288">
         <v>5.69</v>
       </c>
-      <c r="F288">
-        <v>5.69</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>embers</t>
         </is>
@@ -5915,10 +4986,7 @@
       <c r="C289">
         <v>5.69</v>
       </c>
-      <c r="F289">
-        <v>5.69</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
@@ -5933,10 +5001,7 @@
       <c r="C290">
         <v>5.7</v>
       </c>
-      <c r="F290">
-        <v>5.7</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>horn</t>
         </is>
@@ -5951,10 +5016,7 @@
       <c r="C291">
         <v>5.7</v>
       </c>
-      <c r="F291">
-        <v>5.7</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
@@ -5969,10 +5031,7 @@
       <c r="C292">
         <v>5.7</v>
       </c>
-      <c r="F292">
-        <v>5.7</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>abandon</t>
         </is>
@@ -5987,10 +5046,7 @@
       <c r="C293">
         <v>5.7</v>
       </c>
-      <c r="F293">
-        <v>5.7</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>school report</t>
         </is>
@@ -6002,16 +5058,13 @@
           <t>honigmelone</t>
         </is>
       </c>
-      <c r="B294">
+      <c r="C294">
+        <v>5.7</v>
+      </c>
+      <c r="D294">
         <v>0.02</v>
       </c>
-      <c r="D294">
-        <v>5.7</v>
-      </c>
-      <c r="F294">
-        <v>5.7</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>honeydew melon</t>
         </is>
@@ -6023,16 +5076,13 @@
           <t>kabinenlift</t>
         </is>
       </c>
-      <c r="B295">
+      <c r="C295">
+        <v>5.7</v>
+      </c>
+      <c r="D295">
         <v>0.03</v>
       </c>
-      <c r="D295">
-        <v>5.7</v>
-      </c>
-      <c r="F295">
-        <v>5.7</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>gondola lift</t>
         </is>
@@ -6044,16 +5094,13 @@
           <t>sitzsack</t>
         </is>
       </c>
-      <c r="B296">
+      <c r="C296">
+        <v>5.7</v>
+      </c>
+      <c r="D296">
         <v>0.01</v>
       </c>
-      <c r="D296">
-        <v>5.7</v>
-      </c>
-      <c r="F296">
-        <v>5.7</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>beanbag chair</t>
         </is>
@@ -6065,16 +5112,13 @@
           <t>sechskantschlüssel</t>
         </is>
       </c>
-      <c r="B297">
+      <c r="C297">
+        <v>5.7</v>
+      </c>
+      <c r="D297">
         <v>0.01</v>
       </c>
-      <c r="D297">
-        <v>5.7</v>
-      </c>
-      <c r="F297">
-        <v>5.7</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>hexagonal socket spanner</t>
         </is>
@@ -6086,16 +5130,13 @@
           <t>buchhalter</t>
         </is>
       </c>
-      <c r="B298">
+      <c r="C298">
+        <v>5.7</v>
+      </c>
+      <c r="D298">
         <v>2.9</v>
       </c>
-      <c r="D298">
-        <v>5.7</v>
-      </c>
-      <c r="F298">
-        <v>5.7</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>bookkeeper</t>
         </is>
@@ -6107,16 +5148,13 @@
           <t>zoologe</t>
         </is>
       </c>
-      <c r="B299">
+      <c r="C299">
+        <v>5.7</v>
+      </c>
+      <c r="D299">
         <v>1.13</v>
       </c>
-      <c r="D299">
-        <v>5.7</v>
-      </c>
-      <c r="F299">
-        <v>5.7</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>zoologist</t>
         </is>
@@ -6128,16 +5166,13 @@
           <t>stola</t>
         </is>
       </c>
-      <c r="B300">
+      <c r="C300">
+        <v>5.71</v>
+      </c>
+      <c r="D300">
         <v>0.54</v>
       </c>
-      <c r="D300">
-        <v>5.71</v>
-      </c>
-      <c r="F300">
-        <v>5.71</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>stole</t>
         </is>
@@ -6152,10 +5187,7 @@
       <c r="C301">
         <v>5.71</v>
       </c>
-      <c r="F301">
-        <v>5.71</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>admission</t>
         </is>
@@ -6170,10 +5202,7 @@
       <c r="C302">
         <v>5.71</v>
       </c>
-      <c r="F302">
-        <v>5.71</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>feel</t>
         </is>
@@ -6188,10 +5217,7 @@
       <c r="C303">
         <v>5.71</v>
       </c>
-      <c r="F303">
-        <v>5.71</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>housewife</t>
         </is>
@@ -6206,10 +5232,7 @@
       <c r="C304">
         <v>5.71</v>
       </c>
-      <c r="F304">
-        <v>5.71</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>note</t>
         </is>
@@ -6224,10 +5247,7 @@
       <c r="C305">
         <v>5.71</v>
       </c>
-      <c r="F305">
-        <v>5.71</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
@@ -6242,10 +5262,7 @@
       <c r="C306">
         <v>5.71</v>
       </c>
-      <c r="F306">
-        <v>5.71</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>impossible</t>
         </is>
@@ -6260,10 +5277,7 @@
       <c r="C307">
         <v>5.72</v>
       </c>
-      <c r="F307">
-        <v>5.72</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>earnest</t>
         </is>
@@ -6278,10 +5292,7 @@
       <c r="C308">
         <v>5.72</v>
       </c>
-      <c r="F308">
-        <v>5.72</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>just</t>
         </is>
@@ -6296,10 +5307,7 @@
       <c r="C309">
         <v>5.72</v>
       </c>
-      <c r="F309">
-        <v>5.72</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>midnight</t>
         </is>
@@ -6314,10 +5322,7 @@
       <c r="C310">
         <v>5.73</v>
       </c>
-      <c r="F310">
-        <v>5.73</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>gallop</t>
         </is>
@@ -6329,28 +5334,19 @@
           <t>trompete</t>
         </is>
       </c>
-      <c r="B311">
-        <v>5.13</v>
-      </c>
       <c r="C311">
         <v>5.73</v>
       </c>
       <c r="D311">
-        <v>2.8</v>
-      </c>
-      <c r="F311">
-        <v>5.73</v>
-      </c>
-      <c r="H311" t="inlineStr">
+        <v>5.13</v>
+      </c>
+      <c r="E311">
+        <v>4.71</v>
+      </c>
+      <c r="G311" t="inlineStr">
         <is>
           <t>trumpet</t>
         </is>
-      </c>
-      <c r="I311">
-        <v>4.71</v>
-      </c>
-      <c r="J311">
-        <v>6.8</v>
       </c>
     </row>
     <row r="312">
@@ -6359,16 +5355,13 @@
           <t>chinakohl</t>
         </is>
       </c>
-      <c r="B312">
+      <c r="C312">
+        <v>5.74</v>
+      </c>
+      <c r="D312">
         <v>0.48</v>
       </c>
-      <c r="D312">
-        <v>5.74</v>
-      </c>
-      <c r="F312">
-        <v>5.74</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>chinese cabbage</t>
         </is>
@@ -6380,16 +5373,13 @@
           <t>clogs</t>
         </is>
       </c>
-      <c r="B313">
+      <c r="C313">
+        <v>5.74</v>
+      </c>
+      <c r="D313">
         <v>0.04</v>
       </c>
-      <c r="D313">
-        <v>5.74</v>
-      </c>
-      <c r="F313">
-        <v>5.74</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>clogs</t>
         </is>
@@ -6401,16 +5391,13 @@
           <t>tontechniker</t>
         </is>
       </c>
-      <c r="B314">
+      <c r="C314">
+        <v>5.74</v>
+      </c>
+      <c r="D314">
         <v>0.05</v>
       </c>
-      <c r="D314">
-        <v>5.74</v>
-      </c>
-      <c r="F314">
-        <v>5.74</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>sound technician</t>
         </is>
@@ -6425,10 +5412,7 @@
       <c r="C315">
         <v>5.74</v>
       </c>
-      <c r="F315">
-        <v>5.74</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>miss</t>
         </is>
@@ -6443,10 +5427,7 @@
       <c r="C316">
         <v>5.74</v>
       </c>
-      <c r="F316">
-        <v>5.74</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>fur</t>
         </is>
@@ -6461,10 +5442,7 @@
       <c r="C317">
         <v>5.74</v>
       </c>
-      <c r="F317">
-        <v>5.74</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>attempt</t>
         </is>
@@ -6479,10 +5457,7 @@
       <c r="C318">
         <v>5.75</v>
       </c>
-      <c r="F318">
-        <v>5.75</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>treat</t>
         </is>
@@ -6497,10 +5472,7 @@
       <c r="C319">
         <v>5.75</v>
       </c>
-      <c r="F319">
-        <v>5.75</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>petrol</t>
         </is>
@@ -6515,10 +5487,7 @@
       <c r="C320">
         <v>5.75</v>
       </c>
-      <c r="F320">
-        <v>5.75</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>invasion</t>
         </is>
@@ -6533,10 +5502,7 @@
       <c r="C321">
         <v>5.75</v>
       </c>
-      <c r="F321">
-        <v>5.75</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>enter</t>
         </is>
@@ -6551,10 +5517,7 @@
       <c r="C322">
         <v>5.75</v>
       </c>
-      <c r="F322">
-        <v>5.75</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>glitter</t>
         </is>
@@ -6566,16 +5529,13 @@
           <t>knollensellerie</t>
         </is>
       </c>
-      <c r="B323">
+      <c r="C323">
+        <v>5.75</v>
+      </c>
+      <c r="D323">
         <v>0.17</v>
       </c>
-      <c r="D323">
-        <v>5.75</v>
-      </c>
-      <c r="F323">
-        <v>5.75</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>celeriac</t>
         </is>
@@ -6587,13 +5547,10 @@
           <t>kreuzschraubenzieher</t>
         </is>
       </c>
-      <c r="D324">
+      <c r="C324">
         <v>5.75</v>
       </c>
-      <c r="F324">
-        <v>5.75</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>phillips screwdriver</t>
         </is>
@@ -6605,16 +5562,13 @@
           <t>kunstschwimmen</t>
         </is>
       </c>
-      <c r="B325">
+      <c r="C325">
+        <v>5.75</v>
+      </c>
+      <c r="D325">
         <v>0.01</v>
       </c>
-      <c r="D325">
-        <v>5.75</v>
-      </c>
-      <c r="F325">
-        <v>5.75</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>water ballet</t>
         </is>
@@ -6626,16 +5580,13 @@
           <t>dolmetscher</t>
         </is>
       </c>
-      <c r="B326">
+      <c r="C326">
+        <v>5.75</v>
+      </c>
+      <c r="D326">
         <v>7.05</v>
       </c>
-      <c r="D326">
-        <v>5.75</v>
-      </c>
-      <c r="F326">
-        <v>5.75</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>interpreter</t>
         </is>
@@ -6647,16 +5598,13 @@
           <t>theologe</t>
         </is>
       </c>
-      <c r="B327">
+      <c r="C327">
+        <v>5.75</v>
+      </c>
+      <c r="D327">
         <v>10.02</v>
       </c>
-      <c r="D327">
-        <v>5.75</v>
-      </c>
-      <c r="F327">
-        <v>5.75</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>theologian</t>
         </is>
@@ -6671,10 +5619,7 @@
       <c r="C328">
         <v>5.76</v>
       </c>
-      <c r="F328">
-        <v>5.76</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>machine</t>
         </is>
@@ -6686,19 +5631,13 @@
           <t>stier</t>
         </is>
       </c>
-      <c r="B329">
-        <v>5.8</v>
-      </c>
       <c r="C329">
         <v>5.76</v>
       </c>
       <c r="D329">
-        <v>3.3</v>
-      </c>
-      <c r="F329">
-        <v>5.76</v>
-      </c>
-      <c r="H329" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="G329" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
@@ -6713,10 +5652,7 @@
       <c r="C330">
         <v>5.76</v>
       </c>
-      <c r="F330">
-        <v>5.76</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>stubborn</t>
         </is>
@@ -6731,10 +5667,7 @@
       <c r="C331">
         <v>5.76</v>
       </c>
-      <c r="F331">
-        <v>5.76</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>transform</t>
         </is>
@@ -6746,13 +5679,10 @@
           <t>bodygard</t>
         </is>
       </c>
-      <c r="D332">
+      <c r="C332">
         <v>5.78</v>
       </c>
-      <c r="F332">
-        <v>5.78</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>bodyguard</t>
         </is>
@@ -6767,10 +5697,7 @@
       <c r="C333">
         <v>5.78</v>
       </c>
-      <c r="F333">
-        <v>5.78</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>frost</t>
         </is>
@@ -6785,10 +5712,7 @@
       <c r="C334">
         <v>5.78</v>
       </c>
-      <c r="F334">
-        <v>5.78</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>funny</t>
         </is>
@@ -6803,10 +5727,7 @@
       <c r="C335">
         <v>5.78</v>
       </c>
-      <c r="F335">
-        <v>5.78</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>picnic</t>
         </is>
@@ -6821,10 +5742,7 @@
       <c r="C336">
         <v>5.78</v>
       </c>
-      <c r="F336">
-        <v>5.78</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>saviour</t>
         </is>
@@ -6836,16 +5754,13 @@
           <t>maracuja</t>
         </is>
       </c>
-      <c r="B337">
+      <c r="C337">
+        <v>5.79</v>
+      </c>
+      <c r="D337">
         <v>0.01</v>
       </c>
-      <c r="D337">
-        <v>5.79</v>
-      </c>
-      <c r="F337">
-        <v>5.79</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>passion fruit</t>
         </is>
@@ -6857,16 +5772,13 @@
           <t>pullunder</t>
         </is>
       </c>
-      <c r="B338">
+      <c r="C338">
+        <v>5.79</v>
+      </c>
+      <c r="D338">
         <v>0.01</v>
       </c>
-      <c r="D338">
-        <v>5.79</v>
-      </c>
-      <c r="F338">
-        <v>5.79</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>tanktop</t>
         </is>
@@ -6878,16 +5790,13 @@
           <t>locheisen</t>
         </is>
       </c>
-      <c r="B339">
+      <c r="C339">
+        <v>5.79</v>
+      </c>
+      <c r="D339">
         <v>0.05</v>
       </c>
-      <c r="D339">
-        <v>5.79</v>
-      </c>
-      <c r="F339">
-        <v>5.79</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>hole punch</t>
         </is>
@@ -6902,10 +5811,7 @@
       <c r="C340">
         <v>5.79</v>
       </c>
-      <c r="F340">
-        <v>5.79</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>width</t>
         </is>
@@ -6920,10 +5826,7 @@
       <c r="C341">
         <v>5.79</v>
       </c>
-      <c r="F341">
-        <v>5.79</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>wrinkled</t>
         </is>
@@ -6938,19 +5841,13 @@
       <c r="C342">
         <v>5.79</v>
       </c>
-      <c r="F342">
-        <v>5.79</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="E342">
+        <v>6.21</v>
+      </c>
+      <c r="G342" t="inlineStr">
         <is>
           <t>barrel</t>
         </is>
-      </c>
-      <c r="I342">
-        <v>6.21</v>
-      </c>
-      <c r="J342">
-        <v>7.49</v>
       </c>
     </row>
     <row r="343">
@@ -6962,10 +5859,7 @@
       <c r="C343">
         <v>5.79</v>
       </c>
-      <c r="F343">
-        <v>5.79</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>birth</t>
         </is>
@@ -6980,10 +5874,7 @@
       <c r="C344">
         <v>5.79</v>
       </c>
-      <c r="F344">
-        <v>5.79</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>merry</t>
         </is>
@@ -6998,10 +5889,7 @@
       <c r="C345">
         <v>5.79</v>
       </c>
-      <c r="F345">
-        <v>5.79</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>cork</t>
         </is>
